--- a/medicine/Mort/Fanal_funéraire_de_Saint-Goussaud/Fanal_funéraire_de_Saint-Goussaud.xlsx
+++ b/medicine/Mort/Fanal_funéraire_de_Saint-Goussaud/Fanal_funéraire_de_Saint-Goussaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fanal_fun%C3%A9raire_de_Saint-Goussaud</t>
+          <t>Fanal_funéraire_de_Saint-Goussaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fanal funéraire est une lanterne des morts érigée à Saint-Goussaud, Creuse, France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fanal_fun%C3%A9raire_de_Saint-Goussaud</t>
+          <t>Fanal_funéraire_de_Saint-Goussaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'édifice est construit en granite du pays. Il s'agit d'un édifice en forme de tour de plan carré, de 5,5 m de hauteur, terminée par un pavillon comportant quatre ouvertures, lui-même chapeauté par un sommet pyramidal. Elle est surmontée d'une petite croix en métal.
-La face occidentale possède une table d'autel, au-dessus de laquelle est percée une ouverture permettant de manœuvrer la lampe[1].
+La face occidentale possède une table d'autel, au-dessus de laquelle est percée une ouverture permettant de manœuvrer la lampe.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fanal_fun%C3%A9raire_de_Saint-Goussaud</t>
+          <t>Fanal_funéraire_de_Saint-Goussaud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La croix daterait du XIIIe siècle. Elle se situait à l'origine dans l'ancien cimetière jouxtant l'église, mais elle a été déplacée à une date ultérieure[2],[1].
-L'édifice est classé monument historique en 1914[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La croix daterait du XIIIe siècle. Elle se situait à l'origine dans l'ancien cimetière jouxtant l'église, mais elle a été déplacée à une date ultérieure,.
+L'édifice est classé monument historique en 1914.
 </t>
         </is>
       </c>
